--- a/serv_logs.xlsx
+++ b/serv_logs.xlsx
@@ -434,14 +434,4682 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>18:22:02</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18:22:04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18:22:08</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:27:07</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bad Request: /api/v1/categories/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:29:36</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bad Request: /api/token/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:31:44</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:31:44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18:31:46</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18:31:51</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>18:31:56</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18:32:02</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18:32:06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18:32:07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18:32:08</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:32:09</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18:32:13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18:32:14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:32:17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18:32:18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18:32:18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:32:21</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18:32:23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18:32:26</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18:32:28</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>18:32:31</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18:32:33</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:32:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:32:38</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>18:32:41</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>18:32:43</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18:32:46</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>18:32:48</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>18:32:51</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18:32:53</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18:32:56</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>18:32:58</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>18:33:01</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:33:03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>18:33:06</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>18:33:08</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>18:33:11</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>18:33:13</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>18:33:16</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>18:33:18</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>18:33:21</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>18:33:23</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>18:33:26</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>18:33:28</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18:33:31</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>18:33:33</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>18:33:37</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>18:33:38</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>18:33:42</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>18:33:44</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18:33:47</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18:33:49</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>18:33:52</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18:33:54</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18:33:57</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18:33:59</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>18:34:02</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>18:34:04</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>18:34:07</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>18:34:09</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>18:34:12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>18:34:14</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>18:34:17</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>18:34:19</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>18:34:22</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>18:34:24</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>18:34:27</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>18:34:29</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>18:34:32</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>18:34:34</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>18:34:37</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>18:34:39</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>18:34:42</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>18:34:44</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>18:34:47</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>18:34:49</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>18:34:52</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>18:34:54</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>18:34:57</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>18:34:59</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>18:35:02</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>18:35:04</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>18:35:08</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>18:35:09</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18:35:13</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>18:35:15</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>18:35:18</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18:35:20</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>18:35:23</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>18:35:25</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>18:35:28</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>18:35:30</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18:35:33</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>18:35:35</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>18:35:38</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>18:35:40</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>18:35:43</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>18:35:45</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>18:35:48</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>18:35:50</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>18:35:53</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>18:35:55</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>18:35:58</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>18:36:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>18:36:03</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>18:36:05</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>18:36:08</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>18:36:10</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>18:36:13</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>18:36:15</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>18:36:18</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>18:36:20</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>18:36:23</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>18:36:25</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>18:36:28</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>18:36:30</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>18:36:34</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>18:36:35</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>18:36:39</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>18:36:40</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>18:36:44</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>18:36:45</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>18:36:49</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>18:36:51</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>18:36:54</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>18:36:56</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>18:36:59</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>18:37:01</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>18:37:04</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>18:37:06</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>18:37:09</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>18:37:11</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>18:37:14</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>18:37:16</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>18:37:19</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>18:37:21</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>18:37:24</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>18:37:26</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>18:37:29</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>18:37:31</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>18:37:34</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>18:37:36</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>18:37:39</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>18:37:41</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>18:37:44</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>18:37:46</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>18:37:49</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>18:37:51</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>18:37:54</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>18:37:56</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>18:37:59</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>18:38:01</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>18:38:05</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>18:38:06</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>18:38:10</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>18:38:11</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>18:38:15</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>18:38:17</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>18:38:20</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>18:38:22</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>18:38:25</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>18:38:27</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>18:38:30</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>18:38:32</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>18:38:35</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>18:38:37</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>18:38:40</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>18:38:42</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>18:38:45</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>18:38:47</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>18:38:50</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>18:38:52</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>18:38:55</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>18:38:57</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>18:39:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>18:39:02</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>18:39:05</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>18:39:07</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>18:39:12</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>18:39:15</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>18:39:17</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>18:39:20</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>18:39:22</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>18:39:26</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>18:39:27</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>18:39:31</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>18:39:32</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>18:39:36</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>18:39:37</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>18:39:41</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>18:39:43</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>18:39:46</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>18:39:48</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>18:39:51</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>18:39:53</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>18:39:56</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>18:39:58</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>18:40:01</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>18:40:03</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>18:40:06</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>18:40:08</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>18:40:11</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>18:40:13</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>18:40:16</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>18:40:18</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>18:40:21</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>18:40:23</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Not Found: /socket.io/</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -452,7 +5120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +5136,109 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>16:16:58</t>
+          <t>18:22:03</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Internal Server Error: /api/v1/chats/
+          <t>Internal Server Error: /api/v1/items/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/exception.py", line 42, in inner
+    response = await get_response(request)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/base.py", line 284, in _get_response_async
+    response = await sync_to_async(
+               ^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 448, in __call__
+    ret = await asyncio.wait_for(future, timeout=None)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/asyncio/tasks.py", line 442, in wait_for
+    return await fut
+           ^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/current_thread_executor.py", line 22, in run
+    result = self.fn(*self.args, **self.kwargs)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 490, in thread_handler
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/template/response.py", line 111, in render
+    self.content = self.rendered_content
+                   ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/response.py", line 70, in rendered_content
+    ret = renderer.render(self.data, accepted_media_type, context)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/renderers.py", line 99, in render
+    ret = json.dumps(
+          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/utils/json.py", line 25, in dumps
+    return json.dumps(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/__init__.py", line 238, in dumps
+    **kw).encode(obj)
+          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 200, in encode
+    chunks = self.iterencode(o, _one_shot=True)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 258, in iterencode
+    return _iterencode(o, 0)
+           ^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/utils/encoders.py", line 67, in default
+    return super().default(obj)
+           ^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 180, in default
+    raise TypeError(f'Object of type {o.__class__.__name__} '
+TypeError: Object of type OperationalError is not JSON serializable</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18:22:03</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internal Server Error: /api/v1/categories/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+psycopg2.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+The above exception was the direct cause of the following exception:
 Traceback (most recent call last):
   File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
     raise exc_info[1]
@@ -518,61 +5278,625 @@
   File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 506, in dispatch
     response = handler(request, *args, **kwargs)
                ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/app/apps/messenger/views.py", line 50, in list
-    data=serializer.data,
-         ^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/rest_framework/serializers.py", line 768, in data
-    ret = super().data
-          ^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/rest_framework/serializers.py", line 253, in data
-    self._data = self.to_representation(self.instance)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/rest_framework/serializers.py", line 686, in to_representation
-    return [
-           ^
-  File "/usr/local/lib/python3.11/site-packages/rest_framework/serializers.py", line 687, in &lt;listcomp&gt;
-    self.child.to_representation(item) for item in iterable
-    ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/rest_framework/serializers.py", line 522, in to_representation
-    ret[field.field_name] = field.to_representation(attribute)
-                            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/rest_framework/fields.py", line 1838, in to_representation
-    return method(value)
+  File "/app/apps/skins/views.py", line 228, in list
+    if not categories.exists():
+           ^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1241, in exists
+    return self.query.has_results(using=self.db)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 566, in has_results
+    return compiler.has_results()
+           ^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1528, in has_results
+    return bool(self.execute_sql(SINGLE))
+                ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1558, in execute_sql
+    cursor = self.connection.cursor()
+             ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 330, in cursor
+    return self._cursor()
+           ^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 306, in _cursor
+    self.ensure_connection()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 288, in ensure_connection
+    with self.wrap_database_errors:
+  File "/usr/local/lib/python3.11/site-packages/django/db/utils.py", line 91, in __exit__
+    raise dj_exc_value.with_traceback(traceback) from exc_value
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+django.db.utils.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18:22:04</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Internal Server Error: /api/v1/items/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/exception.py", line 42, in inner
+    response = await get_response(request)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/base.py", line 284, in _get_response_async
+    response = await sync_to_async(
+               ^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 448, in __call__
+    ret = await asyncio.wait_for(future, timeout=None)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/asyncio/tasks.py", line 442, in wait_for
+    return await fut
+           ^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/current_thread_executor.py", line 22, in run
+    result = self.fn(*self.args, **self.kwargs)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 490, in thread_handler
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/template/response.py", line 111, in render
+    self.content = self.rendered_content
+                   ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/response.py", line 70, in rendered_content
+    ret = renderer.render(self.data, accepted_media_type, context)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/renderers.py", line 99, in render
+    ret = json.dumps(
+          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/utils/json.py", line 25, in dumps
+    return json.dumps(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/__init__.py", line 238, in dumps
+    **kw).encode(obj)
+          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 200, in encode
+    chunks = self.iterencode(o, _one_shot=True)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 258, in iterencode
+    return _iterencode(o, 0)
+           ^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/utils/encoders.py", line 67, in default
+    return super().default(obj)
+           ^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 180, in default
+    raise TypeError(f'Object of type {o.__class__.__name__} '
+TypeError: Object of type OperationalError is not JSON serializable</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:22:04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internal Server Error: /api/v1/categories/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+psycopg2.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+The above exception was the direct cause of the following exception:
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/exception.py", line 42, in inner
+    response = await get_response(request)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/base.py", line 253, in _get_response_async
+    response = await wrapped_callback(
+               ^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 448, in __call__
+    ret = await asyncio.wait_for(future, timeout=None)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/asyncio/tasks.py", line 442, in wait_for
+    return await fut
+           ^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/current_thread_executor.py", line 22, in run
+    result = self.fn(*self.args, **self.kwargs)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 490, in thread_handler
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/views/decorators/csrf.py", line 56, in wrapper_view
+    return view_func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/viewsets.py", line 125, in view
+    return self.dispatch(request, *args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 509, in dispatch
+    response = self.handle_exception(exc)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 469, in handle_exception
+    self.raise_uncaught_exception(exc)
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 480, in raise_uncaught_exception
+    raise exc
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 506, in dispatch
+    response = handler(request, *args, **kwargs)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/app/apps/skins/views.py", line 228, in list
+    if not categories.exists():
+           ^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1241, in exists
+    return self.query.has_results(using=self.db)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 566, in has_results
+    return compiler.has_results()
+           ^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1528, in has_results
+    return bool(self.execute_sql(SINGLE))
+                ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1558, in execute_sql
+    cursor = self.connection.cursor()
+             ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 330, in cursor
+    return self._cursor()
+           ^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 306, in _cursor
+    self.ensure_connection()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 288, in ensure_connection
+    with self.wrap_database_errors:
+  File "/usr/local/lib/python3.11/site-packages/django/db/utils.py", line 91, in __exit__
+    raise dj_exc_value.with_traceback(traceback) from exc_value
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+django.db.utils.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:22:08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internal Server Error: /api/v1/categories/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+psycopg2.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+The above exception was the direct cause of the following exception:
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/exception.py", line 42, in inner
+    response = await get_response(request)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/base.py", line 253, in _get_response_async
+    response = await wrapped_callback(
+               ^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 448, in __call__
+    ret = await asyncio.wait_for(future, timeout=None)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/asyncio/tasks.py", line 442, in wait_for
+    return await fut
+           ^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/current_thread_executor.py", line 22, in run
+    result = self.fn(*self.args, **self.kwargs)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 490, in thread_handler
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/views/decorators/csrf.py", line 56, in wrapper_view
+    return view_func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/viewsets.py", line 125, in view
+    return self.dispatch(request, *args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 509, in dispatch
+    response = self.handle_exception(exc)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 469, in handle_exception
+    self.raise_uncaught_exception(exc)
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 480, in raise_uncaught_exception
+    raise exc
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/views.py", line 506, in dispatch
+    response = handler(request, *args, **kwargs)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/app/apps/skins/views.py", line 228, in list
+    if not categories.exists():
+           ^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1241, in exists
+    return self.query.has_results(using=self.db)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 566, in has_results
+    return compiler.has_results()
+           ^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1528, in has_results
+    return bool(self.execute_sql(SINGLE))
+                ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1558, in execute_sql
+    cursor = self.connection.cursor()
+             ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 330, in cursor
+    return self._cursor()
+           ^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 306, in _cursor
+    self.ensure_connection()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 288, in ensure_connection
+    with self.wrap_database_errors:
+  File "/usr/local/lib/python3.11/site-packages/django/db/utils.py", line 91, in __exit__
+    raise dj_exc_value.with_traceback(traceback) from exc_value
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+django.db.utils.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:22:08</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Internal Server Error: /api/v1/items/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/exception.py", line 42, in inner
+    response = await get_response(request)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/base.py", line 284, in _get_response_async
+    response = await sync_to_async(
+               ^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 448, in __call__
+    ret = await asyncio.wait_for(future, timeout=None)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/asyncio/tasks.py", line 442, in wait_for
+    return await fut
+           ^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/current_thread_executor.py", line 22, in run
+    result = self.fn(*self.args, **self.kwargs)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 490, in thread_handler
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/template/response.py", line 111, in render
+    self.content = self.rendered_content
+                   ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/response.py", line 70, in rendered_content
+    ret = renderer.render(self.data, accepted_media_type, context)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/renderers.py", line 99, in render
+    ret = json.dumps(
+          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/utils/json.py", line 25, in dumps
+    return json.dumps(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/__init__.py", line 238, in dumps
+    **kw).encode(obj)
+          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 200, in encode
+    chunks = self.iterencode(o, _one_shot=True)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 258, in iterencode
+    return _iterencode(o, 0)
+           ^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/rest_framework/utils/encoders.py", line 67, in default
+    return super().default(obj)
+           ^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/json/encoder.py", line 180, in default
+    raise TypeError(f'Object of type {o.__class__.__name__} '
+TypeError: Object of type OperationalError is not JSON serializable</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:22:13</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internal Server Error: /admin/
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/sessions/backends/base.py", line 187, in _get_session
+    return self._session_cache
+           ^^^^^^^^^^^^^^^^^^^
+AttributeError: 'SessionStore' object has no attribute '_session_cache'
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+psycopg2.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+The above exception was the direct cause of the following exception:
+Traceback (most recent call last):
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/exception.py", line 42, in inner
+    response = await get_response(request)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 486, in thread_handler
+    raise exc_info[1]
+  File "/usr/local/lib/python3.11/site-packages/django/core/handlers/base.py", line 253, in _get_response_async
+    response = await wrapped_callback(
+               ^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 448, in __call__
+    ret = await asyncio.wait_for(future, timeout=None)
+          ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/asyncio/tasks.py", line 442, in wait_for
+    return await fut
+           ^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/current_thread_executor.py", line 22, in run
+    result = self.fn(*self.args, **self.kwargs)
+             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/asgiref/sync.py", line 490, in thread_handler
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/admin/sites.py", line 261, in wrapper
+    return self.admin_view(view, cacheable)(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/decorators.py", line 134, in _wrapper_view
+    response = view_func(request, *args, **kwargs)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/views/decorators/cache.py", line 62, in _wrapper_view_func
+    response = view_func(request, *args, **kwargs)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/admin/sites.py", line 230, in inner
+    if not self.has_permission(request):
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/admin/sites.py", line 203, in has_permission
+    return request.user.is_active and request.user.is_staff
+           ^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/functional.py", line 266, in inner
+    self._setup()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/functional.py", line 419, in _setup
+    self._wrapped = self._setupfunc()
+                    ^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/auth/middleware.py", line 25, in &lt;lambda&gt;
+    request.user = SimpleLazyObject(lambda: get_user(request))
+                                            ^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/auth/middleware.py", line 11, in get_user
+    request._cached_user = auth.get_user(request)
+                           ^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/auth/__init__.py", line 191, in get_user
+    user_id = _get_user_session_key(request)
+              ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/auth/__init__.py", line 60, in _get_user_session_key
+    return get_user_model()._meta.pk.to_python(request.session[SESSION_KEY])
+                                               ~~~~~~~~~~~~~~~^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/sessions/backends/base.py", line 53, in __getitem__
+    return self._session[key]
            ^^^^^^^^^^^^^
-  File "/app/apps/messenger/serializers.py", line 27, in get_members
-    members = Client.objects.filter(id__in=members_ids)
-              ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/sessions/backends/base.py", line 192, in _get_session
+    self._session_cache = self.load()
+                          ^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/sessions/backends/db.py", line 42, in load
+    s = self._get_session_from_db()
+        ^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/contrib/sessions/backends/db.py", line 32, in _get_session_from_db
+    return self.model.objects.get(
+           ^^^^^^^^^^^^^^^^^^^^^^^
   File "/usr/local/lib/python3.11/site-packages/django/db/models/manager.py", line 87, in manager_method
     return getattr(self.get_queryset(), name)(*args, **kwargs)
            ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1436, in filter
-    return self._filter_or_exclude(False, args, kwargs)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1454, in _filter_or_exclude
-    clone._filter_or_exclude_inplace(negate, args, kwargs)
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1461, in _filter_or_exclude_inplace
-    self._query.add_q(Q(*args, **kwargs))
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 1498, in add_q
-    clause, _ = self._add_q(q_object, self.used_aliases)
-                ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 1529, in _add_q
-    child_clause, needed_inner = self.build_filter(
-                                 ^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 1444, in build_filter
-    condition = self.build_lookup(lookups, col, value)
-                ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/query.py", line 1271, in build_lookup
-    lookup = lookup_class(lhs, rhs)
-             ^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/lookups.py", line 27, in __init__
-    self.rhs = self.get_prep_lookup()
-               ^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/lookups.py", line 426, in get_prep_lookup
-    return super().get_prep_lookup()
-           ^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/local/lib/python3.11/site-packages/django/db/models/lookups.py", line 270, in get_prep_lookup
-    for rhs_value in self.rhs:
-TypeError: 'ChatRoom' object is not iterable</t>
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 633, in get
+    num = len(clone)
+          ^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 380, in __len__
+    self._fetch_all()
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 1881, in _fetch_all
+    self._result_cache = list(self._iterable_class(self))
+                         ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/query.py", line 91, in __iter__
+    results = compiler.execute_sql(
+              ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/models/sql/compiler.py", line 1558, in execute_sql
+    cursor = self.connection.cursor()
+             ^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 330, in cursor
+    return self._cursor()
+           ^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 306, in _cursor
+    self.ensure_connection()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 288, in ensure_connection
+    with self.wrap_database_errors:
+  File "/usr/local/lib/python3.11/site-packages/django/db/utils.py", line 91, in __exit__
+    raise dj_exc_value.with_traceback(traceback) from exc_value
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 289, in ensure_connection
+    self.connect()
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/base/base.py", line 270, in connect
+    self.connection = self.get_new_connection(conn_params)
+                      ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/utils/asyncio.py", line 26, in inner
+    return func(*args, **kwargs)
+           ^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/django/db/backends/postgresql/base.py", line 269, in get_new_connection
+    connection = self.Database.connect(**conn_params)
+                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/local/lib/python3.11/site-packages/psycopg2/__init__.py", line 122, in connect
+    conn = _connect(dsn, connection_factory=connection_factory, **kwasync)
+           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+django.db.utils.OperationalError: connection to server at "my-postgres" (172.19.0.3), port 5432 failed: FATAL:  database "diplom" does not exist
+</t>
         </is>
       </c>
     </row>
